--- a/data/trans_dic/P19C04-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P19C04-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_dic/P19C04-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P19C04-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,79%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,32%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,1%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,96%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,15%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,62%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,85%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,25%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,34%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,27%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,92%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,63%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,7</t>
+          <t>10,82; 30,26</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,81</t>
+          <t>24,8; 43,8</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,0</t>
+          <t>12,45; 28,62</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,65</t>
+          <t>15,95; 31,72</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,77</t>
+          <t>10,79; 25,2</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,31</t>
+          <t>9,59; 26,78</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,86</t>
+          <t>4,75; 18,58</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,8</t>
+          <t>11,35; 20,28</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,08</t>
+          <t>13,03; 24,87</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,02</t>
+          <t>19,21; 31,97</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,97</t>
+          <t>9,93; 21,01</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,54</t>
+          <t>14,74; 23,44</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,86%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,36%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,2%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,59%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,81%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,82%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,81%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,57%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,1%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,87%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,94%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,94%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,48</t>
+          <t>18,2; 26,43</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>26,28; 34,71</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,46</t>
+          <t>18,28; 26,09</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>19,19; 26,59</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>10,16; 16,38</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>14,47; 21,15</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,43</t>
+          <t>12,41; 19,29</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>13,19; 17,86</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>14,67; 19,77</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>21,3; 26,58</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>16,56; 21,71</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>16,96; 21,24</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,77%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,24%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,05%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,67%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,16%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,6%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,0%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,87%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,23%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,86%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,48%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,76%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>17,74; 23,88</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>23,25; 29,28</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>13,61; 18,77</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>11,11; 16,38</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>10,01; 14,69</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>16,89; 22,32</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>10,78; 15,49</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>10,28; 13,7</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>14,53; 18,28</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>20,93; 24,98</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>12,73; 16,51</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>11,26; 14,26</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,04%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,69%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,05%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,26%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,43%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,77%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,55%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,68%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,69%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,08%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,21%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,3%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>16,78; 23,6</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>21,48; 28,45</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>16,05; 22,7</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>8,88; 14,44</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>14,42; 20,68</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>13,04; 19,04</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>8,96; 14,51</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>4,97; 9,87</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>16,65; 21,36</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>17,56; 22,31</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>13,08; 17,38</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>7,23; 10,9</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,99%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,46%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,23%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,67%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,94%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,8%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,99%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,18%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,9%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,57%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,5%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,12%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>15,43; 20,96</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>15,81; 21,44</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>13,86; 18,96</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>14,2; 19,22</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>13,55; 18,51</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>14,6; 19,54</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>10,64; 15,56</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>8,75; 11,84</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>15,0; 18,8</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>15,68; 19,37</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>12,88; 16,3</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>11,71; 14,55</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,95%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,71%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,86%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,71%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,69%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,55%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,03%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,08%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,17%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,99%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,35%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,25%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>18,43; 21,69</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>22,96; 26,31</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>16,5; 19,51</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>14,2; 17,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>13,43; 16,2</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>16,28; 19,2</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>11,77; 14,41</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>9,94; 12,01</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>16,14; 18,29</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>19,9; 22,08</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>14,29; 16,27</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>12,31; 14,13</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P19C04-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P19C04-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>19,79%</t>
+          <t>21,52%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>33,32%</t>
+          <t>30,85%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>20,1%</t>
+          <t>21,81%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>22,96%</t>
+          <t>22,41%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>17,15%</t>
+          <t>13,58%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>16,62%</t>
+          <t>17,64%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>9,85%</t>
+          <t>14,7%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>15,25%</t>
+          <t>15,49%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>18,34%</t>
+          <t>17,31%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>25,27%</t>
+          <t>24,09%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>14,92%</t>
+          <t>18,19%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>18,63%</t>
+          <t>18,84%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>10,82; 30,26</t>
+          <t>18,01; 25,32</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>24,8; 43,8</t>
+          <t>27,08; 34,67</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>12,45; 28,62</t>
+          <t>18,19; 25,77</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>15,95; 31,72</t>
+          <t>19,09; 26,21</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>10,79; 25,2</t>
+          <t>10,78; 16,62</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>9,59; 26,78</t>
+          <t>14,69; 20,78</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,75; 18,58</t>
+          <t>12,02; 18,13</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>11,35; 20,28</t>
+          <t>13,42; 17,61</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>13,03; 24,87</t>
+          <t>15,11; 19,59</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>19,21; 31,97</t>
+          <t>21,63; 26,71</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>9,93; 21,01</t>
+          <t>15,81; 20,59</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>14,74; 23,44</t>
+          <t>16,84; 20,88</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>21,86%</t>
+          <t>20,77%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>30,36%</t>
+          <t>26,24%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>22,2%</t>
+          <t>16,05%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>22,59%</t>
+          <t>11,05%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>12,81%</t>
+          <t>12,16%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>17,82%</t>
+          <t>19,6%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>15,81%</t>
+          <t>13,0%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>15,57%</t>
+          <t>11,88%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>17,1%</t>
+          <t>16,23%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>23,87%</t>
+          <t>22,86%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>18,94%</t>
+          <t>14,48%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>18,94%</t>
+          <t>11,42%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>18,2; 26,43</t>
+          <t>17,74; 23,88</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>26,28; 34,71</t>
+          <t>23,25; 29,28</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>18,28; 26,09</t>
+          <t>13,61; 18,77</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>19,19; 26,59</t>
+          <t>5,67; 14,9</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>10,16; 16,38</t>
+          <t>10,01; 14,69</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>14,47; 21,15</t>
+          <t>16,89; 22,32</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>12,41; 19,29</t>
+          <t>10,78; 15,49</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>13,19; 17,86</t>
+          <t>10,31; 13,65</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>14,67; 19,77</t>
+          <t>14,53; 18,28</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>21,3; 26,58</t>
+          <t>20,93; 24,98</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>16,56; 21,71</t>
+          <t>12,73; 16,51</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>16,96; 21,24</t>
+          <t>7,31; 13,4</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>20,77%</t>
+          <t>20,04%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>26,24%</t>
+          <t>24,69%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>16,05%</t>
+          <t>19,05%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>13,67%</t>
+          <t>10,95%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>12,16%</t>
+          <t>17,43%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>19,6%</t>
+          <t>15,77%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>13,0%</t>
+          <t>11,55%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>11,87%</t>
+          <t>6,55%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>16,23%</t>
+          <t>18,69%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>22,86%</t>
+          <t>20,08%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>14,48%</t>
+          <t>15,21%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>12,76%</t>
+          <t>8,43%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>17,74; 23,88</t>
+          <t>16,78; 23,6</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>23,25; 29,28</t>
+          <t>21,48; 28,45</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>13,61; 18,77</t>
+          <t>16,05; 22,7</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>11,11; 16,38</t>
+          <t>8,53; 14,33</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>10,01; 14,69</t>
+          <t>14,42; 20,68</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>16,89; 22,32</t>
+          <t>13,04; 19,04</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>10,78; 15,49</t>
+          <t>8,96; 14,51</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>10,28; 13,7</t>
+          <t>3,18; 9,15</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>14,53; 18,28</t>
+          <t>16,65; 21,36</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>20,93; 24,98</t>
+          <t>17,56; 22,31</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>12,73; 16,51</t>
+          <t>13,08; 17,38</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>11,26; 14,26</t>
+          <t>5,51; 10,24</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>20,04%</t>
+          <t>17,99%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>24,69%</t>
+          <t>18,46%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>19,05%</t>
+          <t>16,23%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>11,26%</t>
+          <t>16,19%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>17,43%</t>
+          <t>15,94%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>15,77%</t>
+          <t>16,8%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>11,55%</t>
+          <t>12,99%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>7,68%</t>
+          <t>9,7%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>18,69%</t>
+          <t>16,9%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>20,08%</t>
+          <t>17,57%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>15,21%</t>
+          <t>14,5%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>9,3%</t>
+          <t>12,65%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,78; 23,6</t>
+          <t>15,43; 20,96</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>21,48; 28,45</t>
+          <t>15,81; 21,44</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>16,05; 22,7</t>
+          <t>13,86; 18,96</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>8,88; 14,44</t>
+          <t>13,72; 18,86</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>14,42; 20,68</t>
+          <t>13,55; 18,51</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>13,04; 19,04</t>
+          <t>14,6; 19,54</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>8,96; 14,51</t>
+          <t>10,64; 15,56</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,97; 9,87</t>
+          <t>7,76; 11,51</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>16,65; 21,36</t>
+          <t>15,0; 18,8</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>17,56; 22,31</t>
+          <t>15,68; 19,37</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>13,08; 17,38</t>
+          <t>12,88; 16,3</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>7,23; 10,9</t>
+          <t>10,84; 14,09</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>17,99%</t>
+          <t>19,95%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>18,46%</t>
+          <t>24,71%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>16,23%</t>
+          <t>17,86%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>16,67%</t>
+          <t>14,46%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>15,94%</t>
+          <t>14,69%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>16,8%</t>
+          <t>17,55%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>12,99%</t>
+          <t>13,03%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>10,18%</t>
+          <t>10,52%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>16,9%</t>
+          <t>17,17%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>17,57%</t>
+          <t>20,99%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>14,5%</t>
+          <t>15,35%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>13,12%</t>
+          <t>12,43%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>15,43; 20,96</t>
+          <t>18,43; 21,69</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>15,81; 21,44</t>
+          <t>22,96; 26,31</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>13,86; 18,96</t>
+          <t>16,5; 19,51</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>14,2; 19,22</t>
+          <t>10,9; 16,17</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>13,55; 18,51</t>
+          <t>13,43; 16,2</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>14,6; 19,54</t>
+          <t>16,28; 19,2</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>10,64; 15,56</t>
+          <t>11,77; 14,41</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>8,75; 11,84</t>
+          <t>8,49; 11,57</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>15,0; 18,8</t>
+          <t>16,14; 18,29</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>15,68; 19,37</t>
+          <t>19,9; 22,08</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>12,88; 16,3</t>
+          <t>14,29; 16,27</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>11,71; 14,55</t>
+          <t>10,79; 13,59</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>19,95%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>24,71%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>17,86%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>15,71%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>14,69%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>17,55%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>13,03%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>11,08%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>17,17%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>20,99%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>15,35%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>13,25%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>18,43; 21,69</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>22,96; 26,31</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>16,5; 19,51</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>14,2; 17,0</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>13,43; 16,2</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>16,28; 19,2</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>11,77; 14,41</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>9,94; 12,01</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>16,14; 18,29</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>19,9; 22,08</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>14,29; 16,27</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>12,31; 14,13</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P19C04-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P19C04-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>18,01; 25,32</t>
+          <t>17,93; 24,83</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>27,08; 34,67</t>
+          <t>27,27; 34,64</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>18,19; 25,77</t>
+          <t>18,2; 25,74</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>19,09; 26,21</t>
+          <t>18,96; 26,14</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>10,78; 16,62</t>
+          <t>11,03; 16,76</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>14,69; 20,78</t>
+          <t>14,78; 20,93</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>12,02; 18,13</t>
+          <t>11,64; 18,22</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>13,42; 17,61</t>
+          <t>13,62; 17,57</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>15,11; 19,59</t>
+          <t>15,08; 19,85</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>21,63; 26,71</t>
+          <t>21,72; 26,58</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>15,81; 20,59</t>
+          <t>15,98; 20,6</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>16,84; 20,88</t>
+          <t>16,92; 20,82</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>17,74; 23,88</t>
+          <t>17,93; 23,9</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>23,25; 29,28</t>
+          <t>23,32; 29,53</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>13,61; 18,77</t>
+          <t>13,38; 18,68</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,67; 14,9</t>
+          <t>5,95; 14,55</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>10,01; 14,69</t>
+          <t>9,96; 14,64</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>16,89; 22,32</t>
+          <t>16,82; 22,52</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>10,78; 15,49</t>
+          <t>10,73; 15,41</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>10,31; 13,65</t>
+          <t>10,36; 13,82</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>14,53; 18,28</t>
+          <t>14,42; 18,32</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>20,93; 24,98</t>
+          <t>20,62; 25,05</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>12,73; 16,51</t>
+          <t>12,8; 16,32</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>7,31; 13,4</t>
+          <t>7,85; 13,42</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>16,78; 23,6</t>
+          <t>16,61; 23,46</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>21,48; 28,45</t>
+          <t>20,77; 28,3</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>16,05; 22,7</t>
+          <t>15,54; 22,51</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>8,53; 14,33</t>
+          <t>8,68; 13,96</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>14,42; 20,68</t>
+          <t>14,44; 20,98</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>13,04; 19,04</t>
+          <t>12,92; 18,68</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>8,96; 14,51</t>
+          <t>9,04; 14,54</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,18; 9,15</t>
+          <t>3,04; 9,17</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>16,65; 21,36</t>
+          <t>16,54; 21,2</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>17,56; 22,31</t>
+          <t>18,12; 22,5</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>13,08; 17,38</t>
+          <t>13,11; 17,27</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>5,51; 10,24</t>
+          <t>4,86; 10,23</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>15,43; 20,96</t>
+          <t>15,55; 21,2</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>15,81; 21,44</t>
+          <t>15,5; 21,47</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>13,86; 18,96</t>
+          <t>13,75; 18,91</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>13,72; 18,86</t>
+          <t>13,7; 18,8</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>13,55; 18,51</t>
+          <t>13,38; 18,63</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>14,6; 19,54</t>
+          <t>14,52; 19,57</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>10,64; 15,56</t>
+          <t>10,78; 15,28</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>7,76; 11,51</t>
+          <t>7,75; 11,57</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>15,0; 18,8</t>
+          <t>14,97; 18,84</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>15,68; 19,37</t>
+          <t>15,86; 19,56</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>12,88; 16,3</t>
+          <t>12,87; 16,36</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>10,84; 14,09</t>
+          <t>10,82; 14,08</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>18,43; 21,69</t>
+          <t>18,37; 21,65</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>22,96; 26,31</t>
+          <t>23,07; 26,49</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>16,5; 19,51</t>
+          <t>16,39; 19,45</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>10,9; 16,17</t>
+          <t>11,18; 16,24</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>13,43; 16,2</t>
+          <t>13,28; 15,96</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>16,28; 19,2</t>
+          <t>16,21; 18,88</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>11,77; 14,41</t>
+          <t>11,7; 14,42</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>8,49; 11,57</t>
+          <t>8,63; 11,67</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>16,14; 18,29</t>
+          <t>16,06; 18,26</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>19,9; 22,08</t>
+          <t>19,98; 22,12</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>14,29; 16,27</t>
+          <t>14,36; 16,34</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>10,79; 13,59</t>
+          <t>10,75; 13,57</t>
         </is>
       </c>
     </row>
@@ -1364,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyo motivo por su última visita al dentista fue por la extracción de algún diente o muela</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>181</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>212</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>284</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>187</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>393</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>102837</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>186929</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>114480</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>137010</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>73058</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>112183</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>80023</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>100950</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>175894</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>299112</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>194503</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>237960</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>85673; 118635</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>165214; 209873</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>95574; 135148</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>115921; 159807</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>59375; 90194</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>93944; 133089</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>63358; 99163</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>88757; 114461</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>153160; 201628</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>269650; 330011</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>170868; 220259</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>213705; 262925</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>206</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>232</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>371</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>223</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>379</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>149970</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>227506</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>131014</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>128954</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>97805</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>175747</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>112610</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>111968</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>247776</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>403253</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>243625</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>240922</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>129452; 172568</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>202161; 256049</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>109186; 152458</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>69425; 169732</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>80080; 117745</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>150868; 201985</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>92925; 133532</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>97645; 130184</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>220135; 279681</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>363745; 441838</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>215350; 274562</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>165591; 283022</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>245</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>109224</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>157011</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>104868</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>75132</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>101922</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>106992</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>66979</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>60376</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>211146</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>264002</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>171847</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>135508</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>90520; 127900</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>132107; 179993</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>85522; 123902</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>59542; 95825</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>84404; 122655</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>87650; 126737</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>52415; 84306</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>28023; 84535</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>186852; 239487</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>238220; 295826</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>148184; 195224</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>78186; 164519</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>262</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>229</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>348</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>127661</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>148752</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>125366</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>143882</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>129777</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>156943</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>113731</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>103107</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>257439</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>305695</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>239097</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>246989</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>110387; 150481</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>124900; 172992</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>106234; 146125</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>121794; 167144</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>108918; 151677</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>135666; 182837</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>94436; 133856</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>82338; 122931</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>228044; 287134</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>275926; 340307</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>212067; 269727</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>211253; 274843</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>484</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>674</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>454</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>614</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>395</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>514</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>345</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>684</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>879</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>1188</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>799</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>1298</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>489693</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>720197</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>475728</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>484977</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>402562</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>551865</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>373344</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>376402</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>892255</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>1272062</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>849072</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>861379</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>450878; 531386</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>672392; 772075</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>436630; 518235</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>374856; 544619</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>364094; 437561</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>509695; 593783</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>335473; 413296</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>308764; 417583</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>834415; 948895</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>1210693; 1340636</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>794359; 903583</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>745530; 940970</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>